--- a/docpac_15061224/tasklist2324.xlsx
+++ b/docpac_15061224/tasklist2324.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{EB0ECED2-57AD-431D-8E86-0C32C358FE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1305E494-E944-40B4-B56E-A0863B3988B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6157DF-0DC8-4925-A418-557C50699B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9th" sheetId="3" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34B0917-F5EB-4512-A9D3-2432A6798206}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
